--- a/a-doc/test/easyexcel/用户清单模版.xlsx
+++ b/a-doc/test/easyexcel/用户清单模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22118" windowHeight="8686"/>
+    <workbookView windowWidth="26230" windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="用户列表" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,12 +123,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF94DBFD"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -653,137 +647,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,9 +789,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1327,24 +1318,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="20.3304347826087" customWidth="1"/>
-    <col min="5" max="5" width="10.6173913043478" customWidth="1"/>
-    <col min="6" max="6" width="20.6260869565217" customWidth="1"/>
-    <col min="7" max="7" width="32.9565217391304" customWidth="1"/>
-    <col min="8" max="8" width="27.9391304347826" customWidth="1"/>
-    <col min="9" max="9" width="17.3217391304348" customWidth="1"/>
-    <col min="10" max="10" width="30.6434782608696" customWidth="1"/>
+    <col min="2" max="2" width="20.3272727272727" customWidth="1"/>
+    <col min="5" max="5" width="10.6181818181818" customWidth="1"/>
+    <col min="6" max="6" width="20.6272727272727" customWidth="1"/>
+    <col min="7" max="7" width="32.9545454545455" customWidth="1"/>
+    <col min="8" max="8" width="27.9363636363636" customWidth="1"/>
+    <col min="9" max="9" width="17.3181818181818" customWidth="1"/>
+    <col min="10" max="10" width="30.6454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.9" spans="1:10">
+    <row r="1" ht="25.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,9 +1347,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="5"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" ht="17.25" spans="1:10">
+    <row r="2" ht="17.5" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" customFormat="1" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1421,36 +1412,6 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
